--- a/General/Def1c - variable selection.xlsx
+++ b/General/Def1c - variable selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstrandgroup-my.sharepoint.com/personal/wrq_rmb_co_za/Documents/Analytix/Research/Dynamic SICR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkLife\Analytix\Research\Dynamic-SICR\IFRS9-SICR-Definitions-Logit\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{FFDDFC6F-4CD5-4B27-ABD0-0321AC4D99C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4F1D36-E1CF-4AD1-9C96-B4AEF0A7CD7A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB19EC74-4906-4AF6-8015-67EA7EDABCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{9D6FC385-DBE1-4183-BFCB-3D03C3BB241A}"/>
+    <workbookView xWindow="4110" yWindow="1455" windowWidth="27180" windowHeight="18885" xr2:uid="{9D6FC385-DBE1-4183-BFCB-3D03C3BB241A}"/>
   </bookViews>
   <sheets>
     <sheet name="Account-level" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,9 +237,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +251,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -274,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,11 +572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648C4B52-8DF5-48CF-A70D-5BE671186E70}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -595,7 +595,7 @@
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -696,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -721,7 +721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -746,20 +746,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -777,7 +777,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -794,7 +794,7 @@
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -820,7 +820,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -870,7 +870,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -889,7 +889,7 @@
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -957,7 +957,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1003,43 +1003,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E828A42-20B8-48E0-BBA0-70973DBDCE8F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" customHeight="1">
+    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1">
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="5">
+      <c r="B2" s="11">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11">
         <v>12</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.45" customHeight="1">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1068,117 +1068,116 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="15"/>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
